--- a/export_xls/liste_livre_20241002.xlsx
+++ b/export_xls/liste_livre_20241002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6.dev\book_data_analysis\export_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3FD7991-71E5-4A46-8C55-D2C45476EECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68FA693-5A58-49E2-830B-181B116C5A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{464CEB3C-9379-4006-AF8F-5EA9AF126FFB}"/>
+    <workbookView xWindow="4830" yWindow="5250" windowWidth="21600" windowHeight="11385" xr2:uid="{464CEB3C-9379-4006-AF8F-5EA9AF126FFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="277">
   <si>
     <t>id</t>
   </si>
@@ -184,18 +184,12 @@
     <t>000038</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>Le manuel de survie des parents</t>
   </si>
   <si>
     <t>Héloïse Junier</t>
   </si>
   <si>
-    <t>000014</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
@@ -217,24 +211,6 @@
     <t>00002</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>La cinquième saison</t>
-  </si>
-  <si>
-    <t>Nora K. Jemisin</t>
-  </si>
-  <si>
-    <t>Les livres de la terre fracturée #1</t>
-  </si>
-  <si>
-    <t>000030</t>
-  </si>
-  <si>
-    <t>Nora Jemisin</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
@@ -274,31 +250,9 @@
     <t>000020</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>Les Cantos d'Hyperion #1</t>
   </si>
   <si>
-    <t>000012</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>How to Talk So Little Kids Will Listen: A Survival Guide to Life With Children Ages 2-7</t>
-  </si>
-  <si>
-    <t>Joanna Faber_x000D_
-Julie King</t>
-  </si>
-  <si>
-    <t>000042</t>
-  </si>
-  <si>
-    <t>Joanna Faber</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
@@ -374,44 +328,6 @@
     <t>000032</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>koreader</t>
-  </si>
-  <si>
-    <t>00009</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>What to Expect the First Year</t>
-  </si>
-  <si>
-    <t>Arlene Eisenberg_x000D_
-Sharon Mazel_x000D_
-Sandee Hathaway, B.S.N.</t>
-  </si>
-  <si>
-    <t>00008</t>
-  </si>
-  <si>
-    <t>Arlene Eisenberg</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>Voyageur 2 : Libration</t>
-  </si>
-  <si>
-    <t>Les voyageurs #2</t>
-  </si>
-  <si>
-    <t>000068</t>
-  </si>
-  <si>
     <t>51</t>
   </si>
   <si>
@@ -421,70 +337,6 @@
     <t>000051</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>Titus d'enfer</t>
-  </si>
-  <si>
-    <t>Mervyn Peake_x000D_
-Patrick Reumaux</t>
-  </si>
-  <si>
-    <t>Gormenghast #1</t>
-  </si>
-  <si>
-    <t>000036</t>
-  </si>
-  <si>
-    <t>Mervyn Peake</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>The Everyday Parenting Toolkit</t>
-  </si>
-  <si>
-    <t>Alan E. Kazdin</t>
-  </si>
-  <si>
-    <t>000054</t>
-  </si>
-  <si>
-    <t>Alan Kazdin</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>The Drummer and the Great Mountain - a Guidebook to Transforming Adult ADD/ADHD</t>
-  </si>
-  <si>
-    <t>Michael Joseph Ferguson</t>
-  </si>
-  <si>
-    <t>000027</t>
-  </si>
-  <si>
-    <t>Michael Joseph</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>Terremer 2 Tehanu</t>
-  </si>
-  <si>
-    <t>Ursula Le Guin</t>
-  </si>
-  <si>
-    <t>Terremer #2</t>
-  </si>
-  <si>
-    <t>000056</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
@@ -521,27 +373,6 @@
     <t>000048</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Siblings Without Rivalry - Adele Faber &amp; Elaine Mazlish</t>
-  </si>
-  <si>
-    <t>000041</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Récursion</t>
-  </si>
-  <si>
-    <t>Blake Crouch</t>
-  </si>
-  <si>
-    <t>000052</t>
-  </si>
-  <si>
     <t>58</t>
   </si>
   <si>
@@ -563,30 +394,9 @@
     <t>000024</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Ravage</t>
-  </si>
-  <si>
-    <t>René Barjavel</t>
-  </si>
-  <si>
-    <t>000031</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Pouvoir, politique et esprits frappeurs enquiquinants</t>
-  </si>
-  <si>
     <t>J. K. Rowling</t>
   </si>
   <si>
-    <t>000060</t>
-  </si>
-  <si>
     <t>Rowling J.</t>
   </si>
   <si>
@@ -617,16 +427,7 @@
     <t>James Corey</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Let's Get Together</t>
-  </si>
-  <si>
     <t>Isaac Asimov</t>
-  </si>
-  <si>
-    <t>00003</t>
   </si>
   <si>
     <t>59</t>
@@ -660,21 +461,6 @@
     <t>Amal El-Mohtar</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Le troupeau aveugle, 1</t>
-  </si>
-  <si>
-    <t>John Brunner</t>
-  </si>
-  <si>
-    <t>Le troupeau aveugle #1</t>
-  </si>
-  <si>
-    <t>000029</t>
-  </si>
-  <si>
     <t>65</t>
   </si>
   <si>
@@ -702,18 +488,12 @@
     <t>000037</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>La nuit des temps</t>
   </si>
   <si>
     <t>und</t>
   </si>
   <si>
-    <t>000017</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -732,30 +512,9 @@
     <t>000055</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>La faune de l'espace</t>
   </si>
   <si>
-    <t>Van Vogt,Alfred E</t>
-  </si>
-  <si>
-    <t>000011</t>
-  </si>
-  <si>
-    <t>Van Vogt,Alfred</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>La chute d'Hypérion</t>
-  </si>
-  <si>
-    <t>000022</t>
-  </si>
-  <si>
     <t>53</t>
   </si>
   <si>
@@ -765,27 +524,6 @@
     <t>000053</t>
   </si>
   <si>
-    <t>KOReader Quickstart Guide</t>
-  </si>
-  <si>
-    <t>00001</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Janua Vera</t>
-  </si>
-  <si>
-    <t>Jean-Philippe Jaworski</t>
-  </si>
-  <si>
-    <t>Récits du Vieux Royaume #1</t>
-  </si>
-  <si>
-    <t>000045</t>
-  </si>
-  <si>
     <t>46</t>
   </si>
   <si>
@@ -810,18 +548,6 @@
     <t>000015</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Hommage à la Catalogne</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>000028</t>
-  </si>
-  <si>
     <t>66</t>
   </si>
   <si>
@@ -834,49 +560,6 @@
     <t>000066</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Guide de démarrage rapide de KOReader</t>
-  </si>
-  <si>
-    <t>000013</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Disciplina sin lágrimas / No-Drama Discipline</t>
-  </si>
-  <si>
-    <t>Daniel Siegel_x000D_
-Tina Payne Bryson</t>
-  </si>
-  <si>
-    <t>es</t>
-  </si>
-  <si>
-    <t>000018</t>
-  </si>
-  <si>
-    <t>Daniel Siegel</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>CN4 Jeux d'ombres</t>
-  </si>
-  <si>
-    <t>Glen Cook</t>
-  </si>
-  <si>
-    <t>Les Annales de la Compagnie Noire #4</t>
-  </si>
-  <si>
-    <t>000049</t>
-  </si>
-  <si>
     <t>63</t>
   </si>
   <si>
@@ -889,46 +572,304 @@
     <t>000063</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Black Destroyer</t>
-  </si>
-  <si>
-    <t>A. E. Van Vogt</t>
-  </si>
-  <si>
-    <t>000010</t>
-  </si>
-  <si>
-    <t>Van Vogt</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>Atomic Habits: An Easy &amp; Proven Way to Build Good Habits &amp; Break Bad Ones</t>
-  </si>
-  <si>
-    <t>James Clear</t>
-  </si>
-  <si>
-    <t>000061</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>A Princess of Mars</t>
-  </si>
-  <si>
-    <t>Edgar Rice Burroughs</t>
-  </si>
-  <si>
-    <t>000043</t>
-  </si>
-  <si>
-    <t>Edgar Rice</t>
+    <t>is read more than 50 %</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A.E Van Vogt</t>
+  </si>
+  <si>
+    <t>papier</t>
+  </si>
+  <si>
+    <t>A.E Van</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>Agatha Christie</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>Coraline</t>
+  </si>
+  <si>
+    <t>Neil Gaiman</t>
+  </si>
+  <si>
+    <t>A25</t>
+  </si>
+  <si>
+    <t>L'Océan au bout du chemin</t>
+  </si>
+  <si>
+    <t>A37</t>
+  </si>
+  <si>
+    <t>Stardust</t>
+  </si>
+  <si>
+    <t>A38</t>
+  </si>
+  <si>
+    <t>L'étrange vie de Nobody Owens</t>
+  </si>
+  <si>
+    <t>A42</t>
+  </si>
+  <si>
+    <t>Les joueurs de Titan</t>
+  </si>
+  <si>
+    <t>Philip K. Dick</t>
+  </si>
+  <si>
+    <t>Philip Dick</t>
+  </si>
+  <si>
+    <t>A43</t>
+  </si>
+  <si>
+    <t>Le Temps désarticulé</t>
+  </si>
+  <si>
+    <t>A31</t>
+  </si>
+  <si>
+    <t>La Guerre éternelle #1</t>
+  </si>
+  <si>
+    <t>Joe Haldeman</t>
+  </si>
+  <si>
+    <t>A29</t>
+  </si>
+  <si>
+    <t>Les enfants de Hurin</t>
+  </si>
+  <si>
+    <t>J.R.R Tolkien</t>
+  </si>
+  <si>
+    <t>A36</t>
+  </si>
+  <si>
+    <t>Le Monde du fleuve - Le Fleuve de l'éternité, tome 1</t>
+  </si>
+  <si>
+    <t>Philip José Farmer</t>
+  </si>
+  <si>
+    <t>Philip José</t>
+  </si>
+  <si>
+    <t>A30</t>
+  </si>
+  <si>
+    <t>Le Meilleur des mondes</t>
+  </si>
+  <si>
+    <t>Aldous Huxley</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Tobie Lolness T1 - La Vie suspendue</t>
+  </si>
+  <si>
+    <t>Timothée de Fombelle</t>
+  </si>
+  <si>
+    <t>Timothée Fombelle</t>
+  </si>
+  <si>
+    <t>A26</t>
+  </si>
+  <si>
+    <t>La Guerre des clans #1 - Retour à l'état sauvage</t>
+  </si>
+  <si>
+    <t>Erin Hunter</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>Tyrann</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>Eclat de L'aube (Roshar 3.5)</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>La part des Ombres 1</t>
+  </si>
+  <si>
+    <t>Gabriel Katz</t>
+  </si>
+  <si>
+    <t>A33</t>
+  </si>
+  <si>
+    <t>Mirroirs et fumée</t>
+  </si>
+  <si>
+    <t>A39</t>
+  </si>
+  <si>
+    <t>Neverwhere</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Tobie Lolness T2 - Les Yeux d’Elisha</t>
+  </si>
+  <si>
+    <t>A40</t>
+  </si>
+  <si>
+    <t>Neuromancien</t>
+  </si>
+  <si>
+    <t>William Gibson.</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>De bons présages (Good Omens)</t>
+  </si>
+  <si>
+    <t>A41</t>
+  </si>
+  <si>
+    <t>La Belgariade T1 - Le pion blanc des présages</t>
+  </si>
+  <si>
+    <t>David Eddings</t>
+  </si>
+  <si>
+    <t>A24</t>
+  </si>
+  <si>
+    <t>Fils des brumes, tome 4 :  L'alliage de la justice</t>
+  </si>
+  <si>
+    <t>A35</t>
+  </si>
+  <si>
+    <t>Légion</t>
+  </si>
+  <si>
+    <t>A27</t>
+  </si>
+  <si>
+    <t>Le Prieuré de l'Oranger T1 partie 2</t>
+  </si>
+  <si>
+    <t>Samantha Shannon</t>
+  </si>
+  <si>
+    <t>A28</t>
+  </si>
+  <si>
+    <t>Le Prieuré de l'Oranger T1 partie 1</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>Fils des brumes, tome 5 : Jeux de masques</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>Le Porteur de lumière tome 1</t>
+  </si>
+  <si>
+    <t>Brent Weeks</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>Fils des brumes, Tome 1 : L'empire ultime</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>Tress de la mer Emeraude</t>
+  </si>
+  <si>
+    <t>A34</t>
+  </si>
+  <si>
+    <t>Skyward, tome 2 : Astrevise</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>Une place à prendre</t>
+  </si>
+  <si>
+    <t>J.K. Rowling</t>
+  </si>
+  <si>
+    <t>A32</t>
+  </si>
+  <si>
+    <t>Cormoran Strike 1 - L'Appel du coucou</t>
+  </si>
+  <si>
+    <t>Robert Galbraith (JKR)</t>
+  </si>
+  <si>
+    <t>Robert Galbraith</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>Les archives de Roshar, tome 4.1 : Rythme de guerre 1</t>
+  </si>
+  <si>
+    <t>A44</t>
+  </si>
+  <si>
+    <t>Skyward, tome 1 : Vers les étoiles</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>Fils des brumes, Tome 3 : Le héros des siècles</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>Fils des brumes, Tome 2 : Le puits de l'ascension</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>Les archives de Roshar, tome 4.2 : Rythme de guerre 2</t>
   </si>
 </sst>
 </file>
@@ -1309,15 +1250,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB128B3-ABC1-41FA-B678-754B5C4FDF23}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M66"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="29" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1357,37 +1301,40 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2">
-        <v>299</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="I2" s="3">
-        <v>45305</v>
+        <v>45453</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>20</v>
@@ -1396,121 +1343,130 @@
         <v>21</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2">
-        <v>789</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="2">
-        <v>779</v>
+        <v>30</v>
       </c>
       <c r="I3" s="3">
-        <v>45564</v>
+        <v>45248</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2">
-        <v>429</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="2">
-        <v>419</v>
+        <v>44</v>
       </c>
       <c r="I4" s="3">
-        <v>45410</v>
+        <v>45257</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2">
-        <v>397</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2">
-        <v>387</v>
+        <v>46</v>
       </c>
       <c r="I5" s="3">
-        <v>45491</v>
+        <v>45453</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>20</v>
@@ -1519,24 +1475,27 @@
         <v>21</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2">
-        <v>337</v>
+        <v>86</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
@@ -1545,13 +1504,13 @@
         <v>27</v>
       </c>
       <c r="H6" s="2">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="I6" s="3">
-        <v>45358</v>
+        <v>45453</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>20</v>
@@ -1560,39 +1519,42 @@
         <v>21</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2">
-        <v>745</v>
+        <v>139</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H7" s="2">
-        <v>708</v>
+        <v>135</v>
       </c>
       <c r="I7" s="3">
-        <v>45427</v>
+        <v>45558</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>20</v>
@@ -1601,24 +1563,27 @@
         <v>21</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2">
-        <v>401</v>
+        <v>157</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>17</v>
@@ -1627,13 +1592,13 @@
         <v>27</v>
       </c>
       <c r="H8" s="2">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="I8" s="3">
-        <v>45300</v>
+        <v>45463</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>20</v>
@@ -1642,121 +1607,130 @@
         <v>21</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>185</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2">
-        <v>476</v>
+        <v>176</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="2">
-        <v>407</v>
+        <v>176</v>
       </c>
       <c r="I9" s="3">
-        <v>45352</v>
+        <v>45233</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>186</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="E10" s="2">
-        <v>349</v>
+        <v>181</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="2">
-        <v>330</v>
+        <v>181</v>
       </c>
       <c r="I10" s="3">
-        <v>45257</v>
+        <v>44962</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="2">
-        <v>759</v>
+        <v>225</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="H11" s="2">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="I11" s="3">
-        <v>45363</v>
+        <v>45524</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>20</v>
@@ -1765,39 +1739,42 @@
         <v>21</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="E12" s="2">
-        <v>572</v>
+        <v>248</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="2">
-        <v>484</v>
+        <v>234</v>
       </c>
       <c r="I12" s="3">
-        <v>45404</v>
+        <v>45522</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>20</v>
@@ -1806,203 +1783,218 @@
         <v>21</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="E13" s="2">
-        <v>445</v>
+        <v>234</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="2">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="I13" s="3">
-        <v>45347</v>
+        <v>44730</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="E14" s="2">
-        <v>1034</v>
+        <v>250</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H14" s="2">
-        <v>1034</v>
+        <v>250</v>
       </c>
       <c r="I14" s="3">
-        <v>45319</v>
+        <v>44617</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2">
-        <v>457</v>
+        <v>250</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H15" s="2">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="I15" s="3">
-        <v>45300</v>
+        <v>44559</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="E16" s="2">
-        <v>461</v>
+        <v>256</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H16" s="2">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="I16" s="3">
-        <v>45480</v>
+        <v>44551</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="E17" s="2">
-        <v>456</v>
+        <v>266</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H17" s="2">
-        <v>447</v>
+        <v>260</v>
       </c>
       <c r="I17" s="3">
-        <v>45439</v>
+        <v>45415</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>20</v>
@@ -2011,39 +2003,42 @@
         <v>21</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E18" s="2">
-        <v>888</v>
+        <v>299</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="H18" s="2">
-        <v>870</v>
+        <v>263</v>
       </c>
       <c r="I18" s="3">
-        <v>45390</v>
+        <v>45305</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>20</v>
@@ -2052,24 +2047,27 @@
         <v>21</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E19" s="2">
-        <v>675</v>
+        <v>277</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>17</v>
@@ -2078,13 +2076,13 @@
         <v>27</v>
       </c>
       <c r="H19" s="2">
-        <v>418</v>
+        <v>266</v>
       </c>
       <c r="I19" s="3">
-        <v>45300</v>
+        <v>45459</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>20</v>
@@ -2093,39 +2091,42 @@
         <v>21</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2">
-        <v>225</v>
+        <v>445</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="H20" s="2">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="I20" s="3">
-        <v>45524</v>
+        <v>45347</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>20</v>
@@ -2134,203 +2135,218 @@
         <v>21</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E21" s="2">
-        <v>385</v>
+        <v>281</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H21" s="2">
-        <v>383</v>
+        <v>281</v>
       </c>
       <c r="I21" s="3">
-        <v>45370</v>
+        <v>44878</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E22" s="2">
-        <v>1</v>
+        <v>281</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="I22" s="3">
-        <v>45299</v>
+        <v>44913</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E23" s="2">
-        <v>2473</v>
+        <v>284</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H23" s="2">
-        <v>27</v>
+        <v>284</v>
       </c>
       <c r="I23" s="3">
-        <v>45299</v>
+        <v>44722</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2">
-        <v>504</v>
+        <v>285</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H24" s="2">
-        <v>221</v>
+        <v>285</v>
       </c>
       <c r="I24" s="3">
-        <v>45565</v>
+        <v>44893</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E25" s="2">
-        <v>157</v>
+        <v>449</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="H25" s="2">
+        <v>288</v>
+      </c>
+      <c r="I25" s="3">
+        <v>45299</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="I25" s="3">
-        <v>45463</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>20</v>
@@ -2339,188 +2355,203 @@
         <v>21</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E26" s="2">
-        <v>883</v>
+        <v>292</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="2">
+        <v>292</v>
+      </c>
+      <c r="I26" s="3">
+        <v>45473</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="2">
+        <v>306</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="2">
+        <v>306</v>
+      </c>
+      <c r="I27" s="3">
+        <v>44956</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3">
-        <v>45410</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="2">
-        <v>390</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="2">
-        <v>4</v>
-      </c>
-      <c r="I27" s="3">
-        <v>45473</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E28" s="2">
-        <v>819</v>
+        <v>312</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H28" s="2">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="I28" s="3">
-        <v>45450</v>
+        <v>45116</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>140</v>
+        <v>219</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>142</v>
+        <v>221</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E29" s="2">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="2">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="I29" s="3">
-        <v>45480</v>
+        <v>45023</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E30" s="2">
-        <v>568</v>
+        <v>342</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>17</v>
@@ -2529,13 +2560,13 @@
         <v>27</v>
       </c>
       <c r="H30" s="2">
-        <v>546</v>
+        <v>325</v>
       </c>
       <c r="I30" s="3">
-        <v>45445</v>
+        <v>45480</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>20</v>
@@ -2544,24 +2575,27 @@
         <v>21</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2">
-        <v>766</v>
+        <v>337</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>17</v>
@@ -2570,13 +2604,13 @@
         <v>27</v>
       </c>
       <c r="H31" s="2">
-        <v>741</v>
+        <v>329</v>
       </c>
       <c r="I31" s="3">
-        <v>45436</v>
+        <v>45358</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>20</v>
@@ -2585,39 +2619,42 @@
         <v>21</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="E32" s="2">
-        <v>86</v>
+        <v>349</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H32" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="I32" s="3">
-        <v>45453</v>
+        <v>45257</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>20</v>
@@ -2626,147 +2663,159 @@
         <v>21</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E33" s="2">
-        <v>5586</v>
+        <v>346</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="I33" s="3">
-        <v>45439</v>
+        <v>45143</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E34" s="2">
-        <v>523</v>
+        <v>372</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H34" s="2">
-        <v>25</v>
+        <v>372</v>
       </c>
       <c r="I34" s="3">
-        <v>45464</v>
+        <v>44857</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="N34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E35" s="2">
-        <v>798</v>
+        <v>374</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H35" s="2">
-        <v>768</v>
+        <v>374</v>
       </c>
       <c r="I35" s="3">
-        <v>45502</v>
+        <v>44614</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E36" s="2">
-        <v>636</v>
+        <v>385</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>17</v>
@@ -2775,13 +2824,13 @@
         <v>27</v>
       </c>
       <c r="H36" s="2">
-        <v>625</v>
+        <v>383</v>
       </c>
       <c r="I36" s="3">
-        <v>45351</v>
+        <v>45370</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>20</v>
@@ -2790,24 +2839,27 @@
         <v>21</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="N36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="E37" s="2">
-        <v>330</v>
+        <v>397</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>17</v>
@@ -2816,13 +2868,13 @@
         <v>27</v>
       </c>
       <c r="H37" s="2">
-        <v>41</v>
+        <v>387</v>
       </c>
       <c r="I37" s="3">
-        <v>45369</v>
+        <v>45491</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>20</v>
@@ -2831,65 +2883,71 @@
         <v>21</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="N37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E38" s="2">
-        <v>59</v>
+        <v>400</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H38" s="2">
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="I38" s="3">
-        <v>45507</v>
+        <v>45488</v>
       </c>
       <c r="J38" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="L38" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="E39" s="2">
-        <v>1</v>
+        <v>476</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>17</v>
@@ -2898,13 +2956,13 @@
         <v>27</v>
       </c>
       <c r="H39" s="2">
-        <v>1</v>
+        <v>407</v>
       </c>
       <c r="I39" s="3">
-        <v>45453</v>
+        <v>45352</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>20</v>
@@ -2913,39 +2971,42 @@
         <v>21</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="N39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>186</v>
+        <v>66</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E40" s="2">
-        <v>823</v>
+        <v>457</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H40" s="2">
-        <v>815</v>
+        <v>414</v>
       </c>
       <c r="I40" s="3">
-        <v>45515</v>
+        <v>45310</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>20</v>
@@ -2954,39 +3015,42 @@
         <v>21</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="N40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2">
-        <v>68</v>
+        <v>675</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H41" s="2">
-        <v>8</v>
+        <v>418</v>
       </c>
       <c r="I41" s="3">
-        <v>45257</v>
+        <v>45300</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>20</v>
@@ -2995,24 +3059,27 @@
         <v>21</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="N41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="E42" s="2">
-        <v>471</v>
+        <v>429</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>17</v>
@@ -3021,13 +3088,13 @@
         <v>27</v>
       </c>
       <c r="H42" s="2">
-        <v>458</v>
+        <v>419</v>
       </c>
       <c r="I42" s="3">
-        <v>45506</v>
+        <v>45410</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>198</v>
+        <v>32</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>20</v>
@@ -3036,24 +3103,27 @@
         <v>21</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="N42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2">
-        <v>277</v>
+        <v>462</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>17</v>
@@ -3062,13 +3132,13 @@
         <v>27</v>
       </c>
       <c r="H43" s="2">
-        <v>266</v>
+        <v>435</v>
       </c>
       <c r="I43" s="3">
-        <v>45459</v>
+        <v>45472</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>20</v>
@@ -3077,162 +3147,174 @@
         <v>21</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="N43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2">
-        <v>382</v>
+        <v>438</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H44" s="2">
-        <v>13</v>
+        <v>438</v>
       </c>
       <c r="I44" s="3">
-        <v>45361</v>
+        <v>44575</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="N44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2">
-        <v>480</v>
+        <v>439</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H45" s="2">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="I45" s="3">
-        <v>45544</v>
+        <v>45018</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="N45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2">
-        <v>266</v>
+        <v>440</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H46" s="2">
-        <v>260</v>
+        <v>440</v>
       </c>
       <c r="I46" s="3">
-        <v>45415</v>
+        <v>44571</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="N46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>175</v>
+        <v>73</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="E47" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="H47" s="2">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="I47" s="3">
-        <v>45301</v>
+        <v>45439</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>20</v>
@@ -3241,65 +3323,71 @@
         <v>21</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="N47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>224</v>
+        <v>106</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="H48" s="2">
-        <v>288</v>
+        <v>456</v>
       </c>
       <c r="I48" s="3">
-        <v>45299</v>
+        <v>44968</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="N48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>226</v>
+        <v>130</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2">
-        <v>342</v>
+        <v>471</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>17</v>
@@ -3308,13 +3396,13 @@
         <v>27</v>
       </c>
       <c r="H49" s="2">
-        <v>325</v>
+        <v>458</v>
       </c>
       <c r="I49" s="3">
-        <v>45480</v>
+        <v>45506</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>20</v>
@@ -3323,24 +3411,27 @@
         <v>21</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="N49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>231</v>
+        <v>142</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2">
-        <v>809</v>
+        <v>480</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>17</v>
@@ -3349,13 +3440,13 @@
         <v>27</v>
       </c>
       <c r="H50" s="2">
-        <v>1</v>
+        <v>467</v>
       </c>
       <c r="I50" s="3">
-        <v>45299</v>
+        <v>45544</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>20</v>
@@ -3364,24 +3455,27 @@
         <v>21</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="N50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>234</v>
+        <v>57</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>235</v>
+        <v>58</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="E51" s="2">
-        <v>765</v>
+        <v>572</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>17</v>
@@ -3390,13 +3484,13 @@
         <v>27</v>
       </c>
       <c r="H51" s="2">
-        <v>2</v>
+        <v>484</v>
       </c>
       <c r="I51" s="3">
-        <v>45326</v>
+        <v>45404</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>236</v>
+        <v>60</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>20</v>
@@ -3405,80 +3499,86 @@
         <v>21</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="N51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H52" s="2">
-        <v>435</v>
+        <v>512</v>
       </c>
       <c r="I52" s="3">
-        <v>45472</v>
+        <v>44742</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="N52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2">
-        <v>8</v>
+        <v>568</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H53" s="2">
-        <v>4</v>
+        <v>546</v>
       </c>
       <c r="I53" s="3">
-        <v>45251</v>
+        <v>45445</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>241</v>
+        <v>102</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>20</v>
@@ -3487,51 +3587,57 @@
         <v>21</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="N53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" s="2">
+        <v>569</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" s="2">
+        <v>569</v>
+      </c>
+      <c r="I54" s="3">
+        <v>44947</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" s="2">
-        <v>744</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" s="2">
-        <v>47</v>
-      </c>
-      <c r="I54" s="3">
-        <v>45450</v>
-      </c>
-      <c r="J54" s="1" t="s">
+      <c r="K54" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>247</v>
       </c>
@@ -3539,192 +3645,204 @@
         <v>248</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>179</v>
+        <v>246</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2">
-        <v>58</v>
+        <v>572</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" s="2">
+        <v>572</v>
+      </c>
+      <c r="I55" s="3">
+        <v>44933</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" s="2">
+        <v>576</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" s="2">
+        <v>576</v>
+      </c>
+      <c r="I56" s="3">
+        <v>44983</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="2">
+        <v>576</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" s="2">
+        <v>576</v>
+      </c>
+      <c r="I57" s="3">
+        <v>45165</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="N57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="2">
+        <v>616</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" s="2">
+        <v>616</v>
+      </c>
+      <c r="I58" s="3">
+        <v>45199</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" s="2">
+        <v>636</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" s="2">
-        <v>46</v>
-      </c>
-      <c r="I55" s="3">
-        <v>45453</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" s="2">
-        <v>1332</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H56" s="2">
-        <v>1125</v>
-      </c>
-      <c r="I56" s="3">
-        <v>45344</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E57" s="2">
-        <v>457</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H57" s="2">
-        <v>414</v>
-      </c>
-      <c r="I57" s="3">
-        <v>45310</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E58" s="2">
-        <v>400</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H58" s="2">
-        <v>12</v>
-      </c>
-      <c r="I58" s="3">
-        <v>45360</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="2">
-        <v>139</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="G59" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H59" s="2">
-        <v>135</v>
+        <v>625</v>
       </c>
       <c r="I59" s="3">
-        <v>45558</v>
+        <v>45351</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>20</v>
@@ -3733,203 +3851,218 @@
         <v>21</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="N59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="2">
+        <v>645</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" s="2">
+        <v>645</v>
+      </c>
+      <c r="I60" s="3">
+        <v>45463</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="2">
+        <v>659</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="2">
+        <v>659</v>
+      </c>
+      <c r="I61" s="3">
+        <v>44795</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E62" s="2">
+        <v>682</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" s="2">
+        <v>682</v>
+      </c>
+      <c r="I62" s="3">
+        <v>45147</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="N62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E60" s="2">
-        <v>10</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H60" s="2">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3">
-        <v>45300</v>
-      </c>
-      <c r="J60" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="K60" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="D63" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" s="2">
+        <v>700</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" s="2">
+        <v>700</v>
+      </c>
+      <c r="I63" s="3">
+        <v>44872</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M63" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E61" s="2">
-        <v>29</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H61" s="2">
-        <v>1</v>
-      </c>
-      <c r="I61" s="3">
-        <v>45310</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E62" s="2">
-        <v>542</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H62" s="2">
-        <v>7</v>
-      </c>
-      <c r="I62" s="3">
-        <v>45454</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E63" s="2">
-        <v>248</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H63" s="2">
-        <v>234</v>
-      </c>
-      <c r="I63" s="3">
-        <v>45522</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>281</v>
+        <v>43</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>282</v>
+        <v>44</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>283</v>
+        <v>45</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="E64" s="2">
-        <v>60</v>
+        <v>745</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H64" s="2">
-        <v>1</v>
+        <v>708</v>
       </c>
       <c r="I64" s="3">
-        <v>45299</v>
+        <v>45427</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>284</v>
+        <v>47</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>20</v>
@@ -3938,89 +4071,538 @@
         <v>21</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="N64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>288</v>
+        <v>106</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2">
-        <v>482</v>
+        <v>736</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" s="2">
+        <v>736</v>
+      </c>
+      <c r="I65" s="3">
+        <v>45052</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" s="2">
+        <v>736</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" s="2">
+        <v>736</v>
+      </c>
+      <c r="I66" s="3">
+        <v>44542</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="2">
+        <v>766</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" s="2">
+        <v>741</v>
+      </c>
+      <c r="I67" s="3">
+        <v>45436</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" s="2">
+        <v>798</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" s="2">
+        <v>768</v>
+      </c>
+      <c r="I68" s="3">
+        <v>45502</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="2">
+        <v>789</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" s="2">
+        <v>779</v>
+      </c>
+      <c r="I69" s="3">
+        <v>45564</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E70" s="2">
+        <v>823</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H65" s="2">
-        <v>7</v>
-      </c>
-      <c r="I65" s="3">
-        <v>45512</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="K65" s="1" t="s">
+      <c r="H70" s="2">
+        <v>815</v>
+      </c>
+      <c r="I70" s="3">
+        <v>45515</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L65" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M65" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E66" s="2">
-        <v>557</v>
-      </c>
-      <c r="F66" s="1" t="s">
+      <c r="L70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="2">
+        <v>888</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" s="2">
-        <v>1</v>
-      </c>
-      <c r="I66" s="3">
-        <v>45439</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="K66" s="1" t="s">
+      <c r="G71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H71" s="2">
+        <v>870</v>
+      </c>
+      <c r="I71" s="3">
+        <v>45390</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K71" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L66" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>294</v>
+      <c r="L71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1032</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" s="2">
+        <v>1032</v>
+      </c>
+      <c r="I72" s="3">
+        <v>45229</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1034</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1034</v>
+      </c>
+      <c r="I73" s="3">
+        <v>45319</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1080</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" s="2">
+        <v>1080</v>
+      </c>
+      <c r="I74" s="3">
+        <v>45218</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1332</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1125</v>
+      </c>
+      <c r="I75" s="3">
+        <v>45344</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" s="2">
+        <v>1200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>45133</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N76" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
